--- a/source-docs/Docu Operators Overview.xlsx
+++ b/source-docs/Docu Operators Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\source-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56399A9C-EA2B-4D18-AC91-3DDF3484E266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EDE8A-AF58-4152-BA5C-B9A4D6A90269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="282">
   <si>
     <t>Date</t>
   </si>
@@ -910,6 +910,33 @@
   </si>
   <si>
     <t>Boolean OR</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>No effect</t>
+  </si>
+  <si>
+    <t>Ignore case</t>
+  </si>
+  <si>
+    <t>Tolerant comparison</t>
+  </si>
+  <si>
+    <t>Ignore blanks</t>
+  </si>
+  <si>
+    <t>Ignore blanks in elements which are of literal types</t>
+  </si>
+  <si>
+    <t>Ignore case in elements which are of literal types</t>
+  </si>
+  <si>
+    <t>Comparison Option</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R234"/>
+  <dimension ref="A2:R252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246:J253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,6 +5501,90 @@
         <v>203</v>
       </c>
     </row>
+    <row r="247" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D247" s="2"/>
+      <c r="E247" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F247" s="35"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="36"/>
+    </row>
+    <row r="248" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D248" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="249" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D249" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G249" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I249" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="250" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D250" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E250" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G250" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I250" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="252" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E252" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F252" t="s">
+        <v>190</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I252" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/source-docs/Docu Operators Overview.xlsx
+++ b/source-docs/Docu Operators Overview.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\source-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EDE8A-AF58-4152-BA5C-B9A4D6A90269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE3AFD7-BF09-40D5-BDB3-334B774B8505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Operators" sheetId="1" r:id="rId1"/>
+    <sheet name="Lookup Combinations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lookup Combinations'!$I$8:$O$39</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="377">
   <si>
     <t>Date</t>
   </si>
@@ -937,13 +952,298 @@
   </si>
   <si>
     <t>Comparison Option</t>
+  </si>
+  <si>
+    <t>table lookup ...</t>
+  </si>
+  <si>
+    <t>... fast ...</t>
+  </si>
+  <si>
+    <t>... ignore case</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>... top down ...</t>
+  </si>
+  <si>
+    <t>... once ...</t>
+  </si>
+  <si>
+    <t>... smart ...</t>
+  </si>
+  <si>
+    <t>... smart once ...</t>
+  </si>
+  <si>
+    <t>... with rules ...</t>
+  </si>
+  <si>
+    <t>... with rules once ...</t>
+  </si>
+  <si>
+    <t>table integrate ...</t>
+  </si>
+  <si>
+    <t>table expand ...</t>
+  </si>
+  <si>
+    <t>table expand fast ...</t>
+  </si>
+  <si>
+    <t>table digest ...</t>
+  </si>
+  <si>
+    <t>32 combinations</t>
+  </si>
+  <si>
+    <t>24 combinations</t>
+  </si>
+  <si>
+    <t>table lookup fast</t>
+  </si>
+  <si>
+    <t>table lookup once</t>
+  </si>
+  <si>
+    <t>table lookup smart</t>
+  </si>
+  <si>
+    <t>table lookup smart once</t>
+  </si>
+  <si>
+    <t>table lookup with rules</t>
+  </si>
+  <si>
+    <t>table lookup with rules once</t>
+  </si>
+  <si>
+    <t>table integrate fast</t>
+  </si>
+  <si>
+    <t>table integrate once</t>
+  </si>
+  <si>
+    <t>table integrate smart</t>
+  </si>
+  <si>
+    <t>table integrate smart once</t>
+  </si>
+  <si>
+    <t>table integrate with rules</t>
+  </si>
+  <si>
+    <t>table integrate with rules once</t>
+  </si>
+  <si>
+    <t>table expand</t>
+  </si>
+  <si>
+    <t>table expand smart</t>
+  </si>
+  <si>
+    <t>table expand with rules</t>
+  </si>
+  <si>
+    <t>table expand fast</t>
+  </si>
+  <si>
+    <t>table expand fast smart</t>
+  </si>
+  <si>
+    <t>table expand fast with rules</t>
+  </si>
+  <si>
+    <t>table digest</t>
+  </si>
+  <si>
+    <t>table digest smart</t>
+  </si>
+  <si>
+    <t>table digest with rules</t>
+  </si>
+  <si>
+    <t>table integrate (top down)</t>
+  </si>
+  <si>
+    <t>table lookpup (top down)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>table expand with rules once</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>table expand fast with rules once</t>
+  </si>
+  <si>
+    <t>table digest with rules once</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CFHIJM</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>GEHIN</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>BCGHKOQSU</t>
+  </si>
+  <si>
+    <t>ARSU</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>ACGILPRTV</t>
+  </si>
+  <si>
+    <t>BQTV</t>
+  </si>
+  <si>
+    <t>ABDEFGMW</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>GJKLMX</t>
+  </si>
+  <si>
+    <t>ABCJNX</t>
+  </si>
+  <si>
+    <t>KVWX</t>
+  </si>
+  <si>
+    <t>LUWX</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>DEY</t>
+  </si>
+  <si>
+    <t>CEKLNWY</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AEIJKS</t>
+  </si>
+  <si>
+    <t>AHLMNU</t>
+  </si>
+  <si>
+    <t>AHKT</t>
+  </si>
+  <si>
+    <t>CMUVXZ</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>GNUVW</t>
+  </si>
+  <si>
+    <t>DFZ</t>
+  </si>
+  <si>
+    <t>CFYZ</t>
+  </si>
+  <si>
+    <t>BEHJLT</t>
+  </si>
+  <si>
+    <t>BIKMNV</t>
+  </si>
+  <si>
+    <t>BIRS</t>
+  </si>
+  <si>
+    <t>DY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,8 +1272,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1343,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -1195,6 +1513,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1491,9 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246:J253"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5589,4 +5915,765 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE6C8B-7604-4A77-985B-BF7A90391029}">
+  <dimension ref="C6:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" t="s">
+        <v>356</v>
+      </c>
+      <c r="L8" t="s">
+        <v>356</v>
+      </c>
+      <c r="N8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I9" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M9" s="43">
+        <f>LEN(N9)</f>
+        <v>9</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="P9" s="44"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="M10" s="43">
+        <f t="shared" ref="M10:M15" si="0">LEN(N10)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M11" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" t="s">
+        <v>369</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="M12" s="43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="O12" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M13" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="P13" s="44"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I14" t="s">
+        <v>369</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O14" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="44"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="I15" t="s">
+        <v>369</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M15" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="P15" s="44"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="M18" s="43">
+        <f t="shared" ref="M18:M24" si="1">LEN(N18)</f>
+        <v>9</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="O18" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="P18" s="44"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="M19" s="43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O19" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="P19" s="44"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I20" t="s">
+        <v>369</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M20" s="43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="O20" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="P20" s="44"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" t="s">
+        <v>369</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="M21" s="43">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O21" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" t="s">
+        <v>369</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="M22" s="43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="14"/>
+      <c r="I23" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" s="43">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="O23" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="I24" t="s">
+        <v>369</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M24" s="43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N24" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="P24" s="44"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="M26" s="43">
+        <f t="shared" ref="M26:M29" si="2">LEN(N26)</f>
+        <v>8</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="O26" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="P26" s="44"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>369</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M27" s="43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O27" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="P27" s="44"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>369</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M28" s="43">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="O28" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="P28" s="44"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>369</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="M29" s="43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O29" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="P29" s="44"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>369</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>369</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="M31" s="43">
+        <f t="shared" ref="M31:M34" si="3">LEN(N31)</f>
+        <v>4</v>
+      </c>
+      <c r="N31" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O31" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="P31" s="44"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>369</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="M32" s="43">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="O32" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="P32" s="44"/>
+    </row>
+    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>369</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M33" s="43">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N33" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="O33" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="P33" s="44"/>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="L34" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="M34" s="43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N34" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="O34" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="P34" s="44"/>
+    </row>
+    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+    </row>
+    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>369</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" s="43">
+        <f t="shared" ref="M36:M39" si="4">LEN(N36)</f>
+        <v>6</v>
+      </c>
+      <c r="N36" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O36" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="P36" s="44"/>
+    </row>
+    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>369</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="M37" s="43">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O37" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="P37" s="44"/>
+    </row>
+    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>369</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" s="43">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="O38" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="P38" s="44"/>
+    </row>
+    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" s="43">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="O39" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="P39" s="44"/>
+    </row>
+    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+    </row>
+    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="I8:O39" xr:uid="{93787FE3-7B68-4C17-B973-19F021F28D87}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>